--- a/Templates/23_05_15_Json_Excel_Template_intro.xlsx
+++ b/Templates/23_05_15_Json_Excel_Template_intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FloraValentina/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/Arbeit/Onesome/Coding/Jsons/Json Builder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650CD638-47E5-524D-9289-AC67B220A2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE85F914-CBB3-3A41-B0EE-4680321A6351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{10C9D494-FF19-E541-B5E6-AA7C08DB1016}"/>
   </bookViews>
@@ -633,10 +633,10 @@
     <t>oder umgedreht i wie Innovation. Die Fähigkeit zur Veränderung sowie der dazu nötige Mut und die nötige Kreativität stehen im Vordergrund, wenn es um Innovationen geht. Schaffe Klarheit darüber, wo du gerade stehst, was dich eventuell noch zurückhält und lerne deine Ressourcen kennen, die dich auf deinem Weg der Veränderung unterstützen werden.</t>
   </si>
   <si>
-    <t>ja -&gt;1.10</t>
-  </si>
-  <si>
-    <t>nein -&gt; 1.4</t>
+    <t>Ja -&gt;1.10</t>
+  </si>
+  <si>
+    <t>Nein -&gt;1.4</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -882,7 +882,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -892,35 +891,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -1333,10 +1304,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tabellenformat 1" pivot="0" count="1" xr9:uid="{DC516747-FE49-2B43-ABAA-5D49823D416B}">
-      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="57"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 2" pivot="0" count="1" xr9:uid="{82F3207E-491C-C845-8AB5-3606B1EA86FB}">
-      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="56"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1649,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA3210E-E7A6-2043-8156-8087E806CB00}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,13 +1884,13 @@
       <c r="W3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="24" t="s">
         <v>115</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="24" t="s">
         <v>117</v>
       </c>
       <c r="AA3" s="15" t="s">
@@ -1942,7 +1913,7 @@
       <c r="B4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="13"/>
       <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
@@ -2023,8 +1994,8 @@
       <c r="B5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="15" t="s">
         <v>80</v>
       </c>
@@ -2040,7 +2011,7 @@
       <c r="S5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AC5" s="25" t="s">
         <v>86</v>
       </c>
       <c r="AD5" s="13" t="s">
@@ -2054,8 +2025,8 @@
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="H6" s="18"/>
       <c r="I6" s="15" t="s">
         <v>3</v>
@@ -2071,8 +2042,8 @@
       <c r="B7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="H7" s="18"/>
       <c r="I7" s="15" t="s">
         <v>3</v>
@@ -2088,7 +2059,7 @@
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="13"/>
       <c r="I8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2074,7 @@
       <c r="B9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -2112,7 +2083,7 @@
       <c r="B10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
@@ -2144,87 +2115,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="containsText" dxfId="59" priority="77" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="55" priority="78" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="Etappen-Titel">
+    <cfRule type="containsText" dxfId="53" priority="79" operator="containsText" text="Etappen-Titel">
       <formula>NOT(ISERROR(SEARCH("Etappen-Titel",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Neue Etappe">
+    <cfRule type="containsText" dxfId="52" priority="80" operator="containsText" text="Neue Etappe">
       <formula>NOT(ISERROR(SEARCH("Neue Etappe",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7 A12">
-    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="51" priority="43" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="47" priority="72" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="71" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="70" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="69" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="containsText" dxfId="47" priority="109" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="43" priority="112" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="109" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="110" operator="containsText" text="Zeit min">
+    <cfRule type="containsText" dxfId="41" priority="110" operator="containsText" text="Zeit min">
       <formula>NOT(ISERROR(SEARCH("Zeit min",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="111" operator="containsText" text="Etappen-Titel">
+    <cfRule type="containsText" dxfId="40" priority="111" operator="containsText" text="Etappen-Titel">
       <formula>NOT(ISERROR(SEARCH("Etappen-Titel",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="112" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O4">
@@ -2242,101 +2213,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S5">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U4">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W4">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y4">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA4">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",AC2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
